--- a/main_script/output/table_1.xlsx
+++ b/main_script/output/table_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>$00 000 MHz</t>
-  </si>
-  <si>
-    <t>6 160</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>15 651</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Noise Temp</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>5Q0 O0D MHz</t>
+  </si>
+  <si>
+    <t>6 160 d8</t>
+  </si>
+  <si>
+    <t>907 731 k</t>
+  </si>
+  <si>
+    <t>15851dB</t>
   </si>
   <si>
     <t>1.000 GHz</t>
@@ -34,16 +46,19 @@
     <t>6.589 dB</t>
   </si>
   <si>
+    <t>1032.194 K</t>
+  </si>
+  <si>
     <t>15.483 dB</t>
   </si>
   <si>
-    <t>1,500 GHz</t>
+    <t>1.500 GHz</t>
   </si>
   <si>
     <t>6.246 dB</t>
   </si>
   <si>
-    <t>931.668</t>
+    <t>931.668 K</t>
   </si>
   <si>
     <t>16.265 dB</t>
@@ -52,16 +67,16 @@
     <t>2.000 GHz</t>
   </si>
   <si>
-    <t>6.784 dB</t>
-  </si>
-  <si>
-    <t>1093.019</t>
-  </si>
-  <si>
-    <t>16.519 dB</t>
-  </si>
-  <si>
-    <t>2.600 GHz</t>
+    <t>6.784 d</t>
+  </si>
+  <si>
+    <t>1093.019 K</t>
+  </si>
+  <si>
+    <t>16.519dB</t>
+  </si>
+  <si>
+    <t>2.500 GHz</t>
   </si>
   <si>
     <t>6.733 dB</t>
@@ -70,7 +85,7 @@
     <t>1076.726 K</t>
   </si>
   <si>
-    <t>16.768</t>
+    <t>16.768 dB</t>
   </si>
   <si>
     <t>3.000 GHz</t>
@@ -79,7 +94,7 @@
     <t>6.964 dB</t>
   </si>
   <si>
-    <t>Kj</t>
+    <t>1151.388 K</t>
   </si>
   <si>
     <t>17.813 dB</t>
@@ -88,25 +103,25 @@
     <t>3.500 GHz</t>
   </si>
   <si>
-    <t>6.899 dB</t>
-  </si>
-  <si>
-    <t>1129.853</t>
+    <t>6.898 dB</t>
+  </si>
+  <si>
+    <t>1129.853 K</t>
   </si>
   <si>
     <t>18.412 dB</t>
   </si>
   <si>
-    <t>4,000 GHz</t>
+    <t>4.000 GHz</t>
   </si>
   <si>
     <t>7.127 dB</t>
   </si>
   <si>
-    <t>1206.570</t>
-  </si>
-  <si>
-    <t>16.829</t>
+    <t>1206.570 K</t>
+  </si>
+  <si>
+    <t>16.829 d8</t>
   </si>
 </sst>
 </file>
@@ -456,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,93 +504,109 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
